--- a/jobs 22 January 2023.xlsx
+++ b/jobs 22 January 2023.xlsx
@@ -441,41 +441,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Fullstack Developer</t>
+          <t xml:space="preserve"> Java Developer (Logistics Industry) </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DevsData LLC</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data engineer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Acturis Poland Sp. z o.o.</t>
+          <t>Santander Bank Polska</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Senior Scala Developer</t>
+          <t>Senior Gameplay Programmer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -485,14 +485,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ICEO LAB LTD</t>
+          <t xml:space="preserve">FINKORP </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Frontend Developer</t>
+          <t>QA Engineer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -502,99 +502,99 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ICEO LAB LTD</t>
+          <t>DevsData LLC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Inżynier oprogramowania (język C)</t>
+          <t>Data Analyst</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior), Specjalista (Mid / Regular)</t>
+          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ZF Group</t>
+          <t>Raisead</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Regular Scala Developer</t>
+          <t>Senior Cloud Database Engineer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Starszy specjalista (Senior), Ekspert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ICEO LAB LTD</t>
+          <t>Cyclad</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Senior Frontend Developer</t>
+          <t>Frontend Developer #Angular</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ICEO LAB LTD</t>
+          <t>GRUPA PZU</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Architektka / Architekt IT (Architekt / Architektka Rozwiązań)</t>
+          <t>Junior Data Scientist</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior), Ekspert</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PKP Energetyka S.A.</t>
+          <t>GRUPA PZU</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Administrator Aplikacji Webowych</t>
+          <t>Programista C++</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GK Farmacol</t>
+          <t xml:space="preserve">PIT-RADWAR S.A. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Analityk SQL</t>
+          <t>Programista systemów wbudowanych w Dziale Napędów Elektrycznych</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -604,65 +604,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SALUMANUS</t>
+          <t>Diehl Controls Polska</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Programista Java</t>
+          <t>Kierownik Działu Oprogramowania</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Menedżer</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEVENET S.A.</t>
+          <t>T4B</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Techniczny Analityk Biznesowy</t>
+          <t>Programista Oracle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior)</t>
+          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Acturis Poland Sp. z o.o.</t>
+          <t>Polska Grupa Farmaceutyczna S.A.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Senior AEM Backend Developer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">BeOne Sp. z o.o. </t>
+          <t>CREDIT SUISSE Poland</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Junior Java Developer </t>
+          <t>Programista Hurtowni Danych</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,150 +672,150 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Inteca</t>
+          <t>Acturis Poland Sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>iOS Developer w Tribe Aplikacji Biznesowych</t>
+          <t>Junior Frontend Developer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Młodszy specjalista (Junior)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ING Bank Śląski S.A.</t>
+          <t>Acturis Poland Sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Administrator Systemów</t>
+          <t>Młodszy Analityk (Zespół Systemów Eksperckich)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Młodszy specjalista (Junior)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Leroy Merlin Polska Sp. z o.o.</t>
+          <t>ULTIMO S.A.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Middle Database Engineer</t>
+          <t>Senior AEM Frontend Developer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N-IX POLAND sp. z o.o.</t>
+          <t>CREDIT SUISSE Poland</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Senior PHP Engineer</t>
+          <t>Starszy Programista iOS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior), Ekspert</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N-IX POLAND sp. z o.o.</t>
+          <t>J.P. Morgan Poland Services sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Junior Android Developer (DDL)</t>
+          <t>Starszy Programista Android</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior)</t>
+          <t>Starszy specjalista (Senior), Ekspert</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lufthansa Systems</t>
+          <t>J.P. Morgan Poland Services sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Junior iOS Developer (DDL)</t>
+          <t>Solution Analyst</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lufthansa Systems</t>
+          <t>Brown Brothers Harriman</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Senior C++ Audio Programmer</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N-IX POLAND sp. z o.o.</t>
+          <t>All for One Poland</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Senior C++ Gameplay Programmer</t>
+          <t>Inżynier Automatyk/ Programista PLC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N-IX POLAND sp. z o.o.</t>
+          <t xml:space="preserve">Konsultim </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Administrator Baz Danych</t>
+          <t>Automation Tester</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -825,150 +825,150 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DOZ S.A.</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>React Native Developer</t>
+          <t>Feature Product Developer (Salesforce)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior), Ekspert</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>J.P. Morgan Poland Services sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Node.js Developer</t>
+          <t>Cloud Data Engineer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Full Stack PHP + React Developer</t>
+          <t xml:space="preserve"> Senior iOS Developer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Frontend React + Angular Developer</t>
+          <t>Senior Front-End Developer (focus Angular)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Senior Android Developer</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Java Developer</t>
+          <t xml:space="preserve"> Senior Java Developer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PHP / WordPress Developer</t>
+          <t>PEGA Developer</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Foreto</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>React.js Developer</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NeuroSYS Sp. z o o.</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Administrator Baz Danych</t>
+          <t>Full Stack Java Developer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -978,14 +978,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DOZ S.A.</t>
+          <t>Capgemini Software</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Node.js Developer</t>
+          <t>Analityk Biznesowo-Systemowy</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -995,48 +995,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NeuroSYS Sp. z o o.</t>
+          <t>ASSECO DATA SYSTEMS S.A.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Administrator Baz Danych</t>
+          <t>Młodszy programista C/C++</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Młodszy specjalista (Junior), Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DOZ S.A.</t>
+          <t xml:space="preserve">PIT-RADWAR S.A. </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Naczelnik Wydziału Zarządzania Danymi</t>
+          <t xml:space="preserve">Web Developer </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Kierownik / Koordynator, Menedżer</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bank Polskiej Spółdzielczości SA</t>
+          <t>Pumox GmbH</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Android Developer</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1046,14 +1046,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NOVELPAY</t>
+          <t>Travcorp Poland sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Junior net. Programmer</t>
+          <t>Wholesale IFRS9 Model Developer</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1063,14 +1063,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SOHBI CRAFT POLAND Sp. z o.o.</t>
+          <t>ING Hubs Poland</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IT Specialist for Warehouse System Support (IT Team for the WMS)</t>
+          <t>Operational Reporting Development and Automation Leader</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1080,14 +1080,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raben Management Services </t>
+          <t>Eurofins GSC Poland Sp. z o. o.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PL/SQL Developer</t>
+          <t>Rekruter IT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1097,65 +1097,65 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raben Management Services </t>
+          <t>BlueSoft Sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RPA Developer</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>METRO Global Solution Center sp. z o.o.</t>
+          <t>DevsData LLC</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Big Data Administrator</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Młodszy specjalista (Junior)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALIOR BANK</t>
+          <t>Acturis Poland Sp. z o.o.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Senior Scala Developer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cyclad</t>
+          <t>ICEO LAB LTD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inżynier – Programista LabVIEW</t>
+          <t>Frontend Developer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1165,99 +1165,99 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fitech Sp. z o.o.</t>
+          <t>ICEO LAB LTD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Inżynier – Programista LabVIEW</t>
+          <t>Inżynier oprogramowania (język C)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Młodszy specjalista (Junior), Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fitech Sp. z o.o.</t>
+          <t>ZF Group</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Regular Scala Developer</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOLD</t>
+          <t>ICEO LAB LTD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Programista / Programistka</t>
+          <t>Senior Frontend Developer</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Starszy specjalista (Senior)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"ETC-PZL AEROSPACE INDUSTRIES" sp. z o.o.</t>
+          <t>ICEO LAB LTD</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Backend Developer - PHP</t>
+          <t>Architektka / Architekt IT (Architekt / Architektka Rozwiązań)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular)</t>
+          <t>Starszy specjalista (Senior), Ekspert</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>InterSynergy</t>
+          <t>PKP Energetyka S.A.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Administrator Aplikacji Webowych</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Młodszy specjalista (Junior), Specjalista (Mid / Regular)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TRADE SOFTWARE &amp; CONSULT SPÓŁKA Z OGRANICZONĄ ODPOWIEDZIALNOŚCIĄ</t>
+          <t>GK Farmacol</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Automatyk - Programista PLC</t>
+          <t>Analityk SQL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1267,24 +1267,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>HORIZON-AUTOMATION Sp. z o.o.</t>
+          <t>SALUMANUS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senior Salesforce Developer</t>
+          <t>Programista Java</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Specjalista (Mid / Regular), Starszy specjalista (Senior)</t>
+          <t>Specjalista (Mid / Regular)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Benefit Systems S.A.</t>
+          <t>SEVENET S.A.</t>
         </is>
       </c>
     </row>
